--- a/data/trans_camb/P42-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42-Edad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.995659971228189</v>
+        <v>8.792270583516412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.58386813632932</v>
+        <v>9.866088373778014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.76354797336139</v>
+        <v>-14.1324373880987</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.45675146124782</v>
+        <v>21.547413479709</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.86120204899428</v>
+        <v>23.15996083738628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.53554987602976</v>
+        <v>3.93153287200167</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1931351136002754</v>
+        <v>0.1824160432942786</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2289228216269725</v>
+        <v>0.2144395831963568</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3025281161232029</v>
+        <v>-0.3115198410150593</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5282024848047493</v>
+        <v>0.5342689974790731</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5554001681256925</v>
+        <v>0.583966367973891</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08710197888637491</v>
+        <v>0.09198390137861377</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.268264292964897</v>
+        <v>0.7729898358398191</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.146831374771805</v>
+        <v>-2.258348107907791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.27971257486242</v>
+        <v>-15.3982522245469</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.419849277293538</v>
+        <v>7.740061536974858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.801012242912361</v>
+        <v>4.851726674746256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.419194587196805</v>
+        <v>-4.761740631445189</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.00312057025073638</v>
+        <v>0.008562760504006034</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02408670490803626</v>
+        <v>-0.02531885407677312</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1711336075523202</v>
+        <v>-0.1698914593958323</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0860541978480833</v>
+        <v>0.09005961024293033</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05554256056418146</v>
+        <v>0.05548754685482044</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05082354428559099</v>
+        <v>-0.05463571187027378</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>1.452950970972167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.161366659559173</v>
+        <v>-3.161366659559162</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.997217141190425</v>
+        <v>2.855136289633399</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8708040088512167</v>
+        <v>-1.175508774733055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.10684788230145</v>
+        <v>-6.582700187153832</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.342910529375491</v>
+        <v>7.128212681199693</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.175246316083427</v>
+        <v>4.157419013140153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5233156843057191</v>
+        <v>-0.2948463232490202</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.01559418798321715</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.03393021991654348</v>
+        <v>-0.03393021991654336</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03176040635698812</v>
+        <v>0.03030210887474126</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.009046149068761359</v>
+        <v>-0.01251059331464615</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.06467559955936102</v>
+        <v>-0.0697153529838128</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08054344441844656</v>
+        <v>0.07819191753712067</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04564863820307984</v>
+        <v>0.04487986528780639</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.005696251221330348</v>
+        <v>-0.003187877712349198</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>2.639538835461808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.288540572177988</v>
+        <v>2.288540572177977</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2447740388667545</v>
+        <v>0.1014096153791434</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1763878160961297</v>
+        <v>-0.1370106554169638</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.475103138195847</v>
+        <v>-0.3333238091816038</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.840893524500474</v>
+        <v>5.704630545978172</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.498586679195727</v>
+        <v>5.568207135452155</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.377781859937477</v>
+        <v>5.13899415796836</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.02849182812010933</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.02470306697229701</v>
+        <v>0.02470306697229689</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.002582667886810356</v>
+        <v>0.001260217887816785</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.001858062716316549</v>
+        <v>-0.0014059157635379</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.00518038594855634</v>
+        <v>-0.003564054591269341</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06414347467699241</v>
+        <v>0.06271272608768953</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.060569273971748</v>
+        <v>0.06139448442371669</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.05908818399297529</v>
+        <v>0.05651336980780252</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>7.330058176354115</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.93923450775924</v>
+        <v>6.939234507759262</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.180078922038793</v>
+        <v>4.124296013679353</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.29641321700915</v>
+        <v>3.19007650649411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.290977329916354</v>
+        <v>3.208141590500613</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.57022225675206</v>
+        <v>12.0040160145246</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.61711539539118</v>
+        <v>11.80578181685059</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.96851415615289</v>
+        <v>10.62354172478257</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>0.08508211586032806</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.08054571193933123</v>
+        <v>0.08054571193933149</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0476453514083283</v>
+        <v>0.04700440996231387</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.03726057862958376</v>
+        <v>0.03680082767065251</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.03699847341240574</v>
+        <v>0.03627836835103639</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.151830939261337</v>
+        <v>0.1451319124021525</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1409435824356248</v>
+        <v>0.1428147406547074</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1306329902680104</v>
+        <v>0.1278987617592065</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.364950124834976</v>
+        <v>3.415273304984768</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6.6712379080843</v>
+        <v>6.356925239768366</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12.68632683117259</v>
+        <v>12.61680731865092</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.09684329661958</v>
+        <v>14.93378261120087</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.9926446236164</v>
+        <v>17.60304073052705</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22.12136997365596</v>
+        <v>22.28821834192266</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.04265548338148459</v>
+        <v>0.04601757007068181</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.08569992217976746</v>
+        <v>0.08187792464943458</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1622426905888465</v>
+        <v>0.1604546318770743</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.208184030055964</v>
+        <v>0.2106106631319346</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2531110653292077</v>
+        <v>0.2457978329947853</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3136999807452667</v>
+        <v>0.3220935457341311</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.82157411650974</v>
+        <v>7.719042826410109</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>12.64492364373447</v>
+        <v>12.42922005506281</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19.76159742067878</v>
+        <v>19.69902676203632</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.41857079525754</v>
+        <v>22.88900008349957</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>27.3814672676333</v>
+        <v>27.38502671276024</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32.89307215978975</v>
+        <v>32.81695147446668</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1228245600460862</v>
+        <v>0.1214965739205869</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2094655302963412</v>
+        <v>0.2036114215090481</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3146401021025394</v>
+        <v>0.3137000029624088</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4390968317683705</v>
+        <v>0.4336953583650648</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5257048198457791</v>
+        <v>0.5293279818034995</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6356067414645248</v>
+        <v>0.6304821609849681</v>
       </c>
     </row>
     <row r="46">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.221573796368764</v>
+        <v>6.180536962845001</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.192183244941917</v>
+        <v>6.307341541587719</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.541460463996832</v>
+        <v>2.704766475822672</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.816312146973996</v>
+        <v>9.929906764812841</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>9.969676909246985</v>
+        <v>9.806409707104107</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.727921358765086</v>
+        <v>6.556352651505956</v>
       </c>
     </row>
     <row r="49">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.0771198306138305</v>
+        <v>0.07682353396567514</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.07724656775636035</v>
+        <v>0.07855173382044754</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.03145657623317433</v>
+        <v>0.03379639756229458</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1254245074746585</v>
+        <v>0.1269877899203487</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1277311509835919</v>
+        <v>0.1257410537191013</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.08627235073084658</v>
+        <v>0.08399514291707633</v>
       </c>
     </row>
     <row r="52">
